--- a/biology/Botanique/Diploneidaceae/Diploneidaceae.xlsx
+++ b/biology/Botanique/Diploneidaceae/Diploneidaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Diploneidaceae  sont une famille d'algues de l'embranchement des Bacillariophyta (Diatomées), de la classe des Bacillariophyceae et de l’ordre des Naviculales.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de la famille vient du genre type Diploneis, dérivé du grec διπλο / diplo, double, et neis du grec νηυς / nèys (latin navis), bateau[1], en référence aux valves de certaines espèces de cette diatomée, qui, étant rétrécies dans leur milieu les fait ressembler  à des bateaux presque coupés en deux ou composés de deux parties symétriques. Le nom du genre fut donné en 1840 par Ehrenberg « à certaines diatomées naviculoïdes panduriformes (c'est-à-dire échancrées en leur milieu) »[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de la famille vient du genre type Diploneis, dérivé du grec διπλο / diplo, double, et neis du grec νηυς / nèys (latin navis), bateau, en référence aux valves de certaines espèces de cette diatomée, qui, étant rétrécies dans leur milieu les fait ressembler  à des bateaux presque coupés en deux ou composés de deux parties symétriques. Le nom du genre fut donné en 1840 par Ehrenberg « à certaines diatomées naviculoïdes panduriformes (c'est-à-dire échancrées en leur milieu) ».
 </t>
         </is>
       </c>
@@ -543,6 +557,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -569,6 +585,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -594,9 +612,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (17 mai 2022)[3] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (17 mai 2022) :
 Diploneis Ehrenberg ex Cleve, 1894
 Raphidodiscus H.L.Smith ex T.Christian, 1887</t>
         </is>
@@ -626,9 +646,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Diploneidaceae D.G.Mann, 1990[3].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Diploneidaceae D.G.Mann, 1990.
 </t>
         </is>
       </c>
@@ -657,7 +679,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Round, F.E., Crawford, R.M. &amp; Mann, D.G. (1990). The diatoms biology and morphology of the genera.  pp. [i-ix], 1-747. Cambridge: Cambridge University Press.</t>
         </is>
